--- a/atlyginimai.xlsx
+++ b/atlyginimai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Development\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="6_{E1EC1CAC-4B64-4ED2-811B-C47163439294}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{923393D0-DF88-4DC7-9D19-CE956F4DCF5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="107_{5899B481-18D3-42FB-8408-6D001182FDC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{71DF866D-CBC4-40B7-8D66-9127891468C4}"/>
   </bookViews>
@@ -126,7 +126,7 @@
     <t>Draudėjo grupė</t>
   </si>
   <si>
-    <t>IV</t>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A3:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="O5" s="11">
         <f>IF(D5="ne",(N5-M5)*(0.0163+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100)),(N5-M5)*(0.0235+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100)))</f>
-        <v>30.299999999999997</v>
+        <v>17.7</v>
       </c>
       <c r="P5" s="11">
         <f>ROUND(IF(G5="taip",(IF(AND(N5&lt;=555,N5&gt;=300),300,(IF(N5&lt;300,N5,IF(300-0.15*(N5-555)&lt;0,0,(300-0.15*(N5-555))))))),0),2)</f>
@@ -889,11 +889,11 @@
       </c>
       <c r="S5" s="11">
         <f>IF(D5="ne",I5+21.13+_xlfn.SWITCH($C$19,"I",0.14,"II",0.36,"III",0.7,"IV",1.4),I5+21.85+_xlfn.SWITCH($C$19,"I",0.14,"II",0.36,"III",0.7,"IV",1.4))</f>
-        <v>22.529999999999998</v>
+        <v>21.27</v>
       </c>
       <c r="T5" s="11">
         <f>ROUND((N5-M5)*(S5/100),2)</f>
-        <v>225.3</v>
+        <v>212.7</v>
       </c>
       <c r="U5" s="3">
         <v>0</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="O6" s="11">
         <f t="shared" ref="O6:O14" si="3">IF(D6="ne",(N6-M6)*(0.0163+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100)),(N6-M6)*(0.0235+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100)))</f>
-        <v>30.299999999999997</v>
+        <v>17.7</v>
       </c>
       <c r="P6" s="11">
         <f t="shared" ref="P6:P14" si="4">ROUND(IF(G6="taip",(IF(AND(N6&lt;=555,N6&gt;=300),300,(IF(N6&lt;300,N6,IF(300-0.15*(N6-555)&lt;0,0,(300-0.15*(N6-555))))))),0),2)</f>
@@ -969,11 +969,11 @@
       </c>
       <c r="S6" s="11">
         <f t="shared" ref="S6:S14" si="6">IF(D6="ne",I6+21.13+_xlfn.SWITCH($C$19,"I",0.14,"II",0.36,"III",0.7,"IV",1.4),I6+21.85+_xlfn.SWITCH($C$19,"I",0.14,"II",0.36,"III",0.7,"IV",1.4))</f>
-        <v>22.529999999999998</v>
+        <v>21.27</v>
       </c>
       <c r="T6" s="11">
         <f t="shared" ref="T6:T14" si="7">ROUND((N6-M6)*(S6/100),2)</f>
-        <v>225.3</v>
+        <v>212.7</v>
       </c>
       <c r="U6" s="3">
         <v>0</v>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="O7" s="11">
         <f t="shared" si="3"/>
-        <v>30.299999999999997</v>
+        <v>17.7</v>
       </c>
       <c r="P7" s="11">
         <f t="shared" si="4"/>
@@ -1049,11 +1049,11 @@
       </c>
       <c r="S7" s="11">
         <f t="shared" si="6"/>
-        <v>22.529999999999998</v>
+        <v>21.27</v>
       </c>
       <c r="T7" s="11">
         <f t="shared" si="7"/>
-        <v>225.3</v>
+        <v>212.7</v>
       </c>
       <c r="U7" s="3">
         <v>0</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="O8" s="11">
         <f t="shared" si="3"/>
-        <v>30.299999999999997</v>
+        <v>17.7</v>
       </c>
       <c r="P8" s="11">
         <f t="shared" si="4"/>
@@ -1129,11 +1129,11 @@
       </c>
       <c r="S8" s="11">
         <f t="shared" si="6"/>
-        <v>22.529999999999998</v>
+        <v>21.27</v>
       </c>
       <c r="T8" s="11">
         <f t="shared" si="7"/>
-        <v>225.3</v>
+        <v>212.7</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="O9" s="11">
         <f t="shared" si="3"/>
-        <v>30.299999999999997</v>
+        <v>17.7</v>
       </c>
       <c r="P9" s="11">
         <f t="shared" si="4"/>
@@ -1209,11 +1209,11 @@
       </c>
       <c r="S9" s="11">
         <f t="shared" si="6"/>
-        <v>22.529999999999998</v>
+        <v>21.27</v>
       </c>
       <c r="T9" s="11">
         <f t="shared" si="7"/>
-        <v>225.3</v>
+        <v>212.7</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="O10" s="11">
         <f t="shared" si="3"/>
-        <v>30.299999999999997</v>
+        <v>17.7</v>
       </c>
       <c r="P10" s="11">
         <f t="shared" si="4"/>
@@ -1289,11 +1289,11 @@
       </c>
       <c r="S10" s="11">
         <f t="shared" si="6"/>
-        <v>22.529999999999998</v>
+        <v>21.27</v>
       </c>
       <c r="T10" s="11">
         <f t="shared" si="7"/>
-        <v>225.3</v>
+        <v>212.7</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="O11" s="11">
         <f t="shared" si="3"/>
-        <v>30.299999999999997</v>
+        <v>17.7</v>
       </c>
       <c r="P11" s="11">
         <f t="shared" si="4"/>
@@ -1369,11 +1369,11 @@
       </c>
       <c r="S11" s="11">
         <f t="shared" si="6"/>
-        <v>22.529999999999998</v>
+        <v>21.27</v>
       </c>
       <c r="T11" s="11">
         <f t="shared" si="7"/>
-        <v>225.3</v>
+        <v>212.7</v>
       </c>
       <c r="U11" s="3">
         <v>0</v>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="O12" s="11">
         <f t="shared" si="3"/>
-        <v>30.299999999999997</v>
+        <v>17.7</v>
       </c>
       <c r="P12" s="11">
         <f t="shared" si="4"/>
@@ -1449,11 +1449,11 @@
       </c>
       <c r="S12" s="11">
         <f t="shared" si="6"/>
-        <v>22.529999999999998</v>
+        <v>21.27</v>
       </c>
       <c r="T12" s="11">
         <f t="shared" si="7"/>
-        <v>225.3</v>
+        <v>212.7</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="O13" s="11">
         <f t="shared" si="3"/>
-        <v>30.299999999999997</v>
+        <v>17.7</v>
       </c>
       <c r="P13" s="11">
         <f t="shared" si="4"/>
@@ -1529,11 +1529,11 @@
       </c>
       <c r="S13" s="11">
         <f t="shared" si="6"/>
-        <v>22.529999999999998</v>
+        <v>21.27</v>
       </c>
       <c r="T13" s="11">
         <f t="shared" si="7"/>
-        <v>225.3</v>
+        <v>212.7</v>
       </c>
       <c r="U13" s="3">
         <v>0</v>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O14" s="11">
         <f t="shared" si="3"/>
-        <v>30.299999999999997</v>
+        <v>17.7</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" si="4"/>
@@ -1609,11 +1609,11 @@
       </c>
       <c r="S14" s="11">
         <f t="shared" si="6"/>
-        <v>22.529999999999998</v>
+        <v>21.27</v>
       </c>
       <c r="T14" s="11">
         <f t="shared" si="7"/>
-        <v>225.3</v>
+        <v>212.7</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="O15" s="17">
         <f t="shared" si="9"/>
-        <v>303.00000000000006</v>
+        <v>176.99999999999997</v>
       </c>
       <c r="P15" s="17">
         <f t="shared" si="9"/>
@@ -1677,7 +1677,7 @@
       <c r="S15" s="17"/>
       <c r="T15" s="17">
         <f>SUM(T5:T14)</f>
-        <v>2253</v>
+        <v>2127</v>
       </c>
       <c r="U15" s="17">
         <f>SUM(U5:U14)</f>

--- a/atlyginimai.xlsx
+++ b/atlyginimai.xlsx
@@ -330,27 +330,27 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -694,7 +694,7 @@
   <dimension ref="A3:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -746,7 +746,7 @@
       <c r="G3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="21" t="s">
@@ -779,19 +779,19 @@
         <v>15</v>
       </c>
       <c r="V3" s="29"/>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="22"/>
       <c r="J4" s="14" t="s">
         <v>4</v>
@@ -824,7 +824,7 @@
       <c r="V4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="24"/>
+      <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1753,6 +1753,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="17">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
@@ -1764,12 +1770,6 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I14" xr:uid="{37C88D5E-F204-411F-81CC-1124D2BC86F0}">

--- a/atlyginimai.xlsx
+++ b/atlyginimai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Development\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="107_{5899B481-18D3-42FB-8408-6D001182FDC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="107_{5899B481-18D3-42FB-8408-6D001182FDC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{475BE873-C82C-4415-AE33-6009373E9531}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{71DF866D-CBC4-40B7-8D66-9127891468C4}"/>
+    <workbookView xWindow="360" yWindow="-120" windowWidth="28560" windowHeight="16440" xr2:uid="{71DF866D-CBC4-40B7-8D66-9127891468C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Taikytas bendras Sodros tarifas %</t>
   </si>
   <si>
-    <t>Terminuota darbo sutartis</t>
-  </si>
-  <si>
     <t>ne</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Terminuota darbo sutartis (taip, ne)</t>
   </si>
 </sst>
 </file>
@@ -330,27 +330,27 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -694,7 +694,7 @@
   <dimension ref="A3:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -735,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>18</v>
@@ -746,7 +746,7 @@
       <c r="G3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="21" t="s">
@@ -760,7 +760,7 @@
       <c r="M3" s="28"/>
       <c r="N3" s="29"/>
       <c r="O3" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="25" t="s">
         <v>10</v>
@@ -779,19 +779,19 @@
         <v>15</v>
       </c>
       <c r="V3" s="29"/>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="24"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="22"/>
       <c r="J4" s="14" t="s">
         <v>4</v>
@@ -824,7 +824,7 @@
       <c r="V4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="20"/>
+      <c r="W4" s="24"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -837,7 +837,7 @@
         <v>1000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4">
         <v>168</v>
@@ -872,7 +872,7 @@
         <v>1000</v>
       </c>
       <c r="O5" s="11">
-        <f>IF(D5="ne",(N5-M5)*(0.0163+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100)),(N5-M5)*(0.0235+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100)))</f>
+        <f>ROUND(IF(D5="ne",(N5-M5)*(0.0163+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100)),(N5-M5)*(0.0235+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100))),2)</f>
         <v>17.7</v>
       </c>
       <c r="P5" s="11">
@@ -917,7 +917,7 @@
         <v>1000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4">
         <v>168</v>
@@ -952,7 +952,7 @@
         <v>1000</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" ref="O6:O14" si="3">IF(D6="ne",(N6-M6)*(0.0163+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100)),(N6-M6)*(0.0235+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100)))</f>
+        <f t="shared" ref="O6:O14" si="3">ROUND(IF(D6="ne",(N6-M6)*(0.0163+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100)),(N6-M6)*(0.0235+_xlfn.SWITCH($C$19,"I",0.14/100,"II",0.36/100,"III",0.7/100,"IV",1.4/100))),2)</f>
         <v>17.7</v>
       </c>
       <c r="P6" s="11">
@@ -997,7 +997,7 @@
         <v>1000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4">
         <v>168</v>
@@ -1077,7 +1077,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4">
         <v>168</v>
@@ -1157,7 +1157,7 @@
         <v>1000</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4">
         <v>168</v>
@@ -1237,7 +1237,7 @@
         <v>1000</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4">
         <v>168</v>
@@ -1317,7 +1317,7 @@
         <v>1000</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4">
         <v>168</v>
@@ -1397,7 +1397,7 @@
         <v>1000</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4">
         <v>168</v>
@@ -1477,7 +1477,7 @@
         <v>1000</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4">
         <v>168</v>
@@ -1557,7 +1557,7 @@
         <v>1000</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="4">
         <v>168</v>
@@ -1744,21 +1744,15 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="17">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
@@ -1770,6 +1764,12 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I14" xr:uid="{37C88D5E-F204-411F-81CC-1124D2BC86F0}">
